--- a/Files/Read.xlsx
+++ b/Files/Read.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>iRobot_TeamLeader</t>
+  </si>
+  <si>
+    <t>Nonsense</t>
   </si>
 </sst>
 </file>
@@ -342,7 +346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -363,4 +367,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Files/Read.xlsx
+++ b/Files/Read.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793AE246-4A38-47C7-83F6-E0C12F6171F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Employee Details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,22 +22,248 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="72">
   <si>
     <t>iRobot_TeamLeader</t>
   </si>
   <si>
     <t>Nonsense</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Bussiness Unit</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Employee Level</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Employee No</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>ID Number</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language </t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Cellphone No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alt Contact no</t>
+  </si>
+  <si>
+    <t>iRobotCompany</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Gauteng</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>5.1 to 7 years</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Robotics Guy</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>9405086027080</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>thatGuy@thatTest.com</t>
+  </si>
+  <si>
+    <t>0609013665</t>
+  </si>
+  <si>
+    <t>060010111</t>
+  </si>
+  <si>
+    <t>060010112</t>
+  </si>
+  <si>
+    <t>060010113</t>
+  </si>
+  <si>
+    <t>060010114</t>
+  </si>
+  <si>
+    <t>060010115</t>
+  </si>
+  <si>
+    <t>060010116</t>
+  </si>
+  <si>
+    <t>060010117</t>
+  </si>
+  <si>
+    <t>060010118</t>
+  </si>
+  <si>
+    <t>060010119</t>
+  </si>
+  <si>
+    <t>060010120</t>
+  </si>
+  <si>
+    <t>060010121</t>
+  </si>
+  <si>
+    <t>060010122</t>
+  </si>
+  <si>
+    <t>060010123</t>
+  </si>
+  <si>
+    <t>060010124</t>
+  </si>
+  <si>
+    <t>060010125</t>
+  </si>
+  <si>
+    <t>060010126</t>
+  </si>
+  <si>
+    <t>060010127</t>
+  </si>
+  <si>
+    <t>0609013666</t>
+  </si>
+  <si>
+    <t>0609013667</t>
+  </si>
+  <si>
+    <t>0609013668</t>
+  </si>
+  <si>
+    <t>0609013669</t>
+  </si>
+  <si>
+    <t>0609013670</t>
+  </si>
+  <si>
+    <t>0609013671</t>
+  </si>
+  <si>
+    <t>0609013672</t>
+  </si>
+  <si>
+    <t>0609013673</t>
+  </si>
+  <si>
+    <t>0609013674</t>
+  </si>
+  <si>
+    <t>0609013675</t>
+  </si>
+  <si>
+    <t>0609013676</t>
+  </si>
+  <si>
+    <t>0609013677</t>
+  </si>
+  <si>
+    <t>0609013678</t>
+  </si>
+  <si>
+    <t>0609013679</t>
+  </si>
+  <si>
+    <t>0609013680</t>
+  </si>
+  <si>
+    <t>0609013681</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -57,15 +285,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -343,11 +686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,10 +713,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -387,4 +730,1177 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E70661-38D2-4DD0-A56B-1A1E400144D7}">
+  <dimension ref="A1:T18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="16">
+        <v>986532</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="16">
+        <v>20</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4">
+        <v>986533</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="4">
+        <v>20</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4">
+        <v>986534</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="4">
+        <v>20</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4">
+        <v>986535</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="4">
+        <v>20</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4">
+        <v>986536</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="4">
+        <v>20</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="4">
+        <v>986537</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="4">
+        <v>20</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4">
+        <v>986538</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="4">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="4">
+        <v>986539</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="4">
+        <v>20</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4">
+        <v>986540</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="4">
+        <v>20</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="4">
+        <v>986541</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="4">
+        <v>20</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="4">
+        <v>986542</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="4">
+        <v>20</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="4">
+        <v>986543</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="4">
+        <v>20</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="4">
+        <v>986544</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="4">
+        <v>20</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="4">
+        <v>986545</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="4">
+        <v>20</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="4">
+        <v>986546</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="4">
+        <v>20</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="4">
+        <v>986547</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="4">
+        <v>20</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="9">
+        <v>986548</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="9">
+        <v>20</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{6BA8BEA0-0B32-4688-B539-BEF767D556BB}"/>
+    <hyperlink ref="R3" r:id="rId2" xr:uid="{D2099711-112C-406F-8157-69C77964378A}"/>
+    <hyperlink ref="R4" r:id="rId3" xr:uid="{BF6CE029-3EB4-458B-97D9-ED92DA61F6D8}"/>
+    <hyperlink ref="R5" r:id="rId4" xr:uid="{45C894EA-1EC1-4FC3-946D-67E73BD793D7}"/>
+    <hyperlink ref="R6" r:id="rId5" xr:uid="{6FC87422-207E-45C4-B1D8-2B4F7CEB43F3}"/>
+    <hyperlink ref="R7" r:id="rId6" xr:uid="{80ECC29C-721A-4B25-9866-C5E340B7D287}"/>
+    <hyperlink ref="R8" r:id="rId7" xr:uid="{1A3F4E81-0BB4-4C1F-8B8E-CACF9D765513}"/>
+    <hyperlink ref="R9" r:id="rId8" xr:uid="{7A3E5C09-3234-4D23-BC23-B3F745FF4255}"/>
+    <hyperlink ref="R10" r:id="rId9" xr:uid="{D29B476A-80AB-4F6E-8EF1-4CD5602BC011}"/>
+    <hyperlink ref="R11" r:id="rId10" xr:uid="{D822C8FC-2510-401D-9BAB-CA5D2023682D}"/>
+    <hyperlink ref="R12" r:id="rId11" xr:uid="{1298015C-94AC-486F-BA58-AB44AC24196B}"/>
+    <hyperlink ref="R13" r:id="rId12" xr:uid="{4C1F033F-07F1-4BB0-A504-42A16423D344}"/>
+    <hyperlink ref="R14" r:id="rId13" xr:uid="{1062B740-0AB3-4D75-BCE6-C3A7D9A3A092}"/>
+    <hyperlink ref="R15" r:id="rId14" xr:uid="{42551EA6-63EE-474B-BE52-DB394329CE93}"/>
+    <hyperlink ref="R16" r:id="rId15" xr:uid="{70F0EBC3-3A4F-4E56-BABE-935FBADB9E9B}"/>
+    <hyperlink ref="R17" r:id="rId16" xr:uid="{522E4E55-AE89-4579-B20D-B6EE4D84BFBA}"/>
+    <hyperlink ref="R18" r:id="rId17" xr:uid="{8370E911-E719-4BBD-AE89-F591AF0C2C9C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
+</worksheet>
 </file>
--- a/Files/Read.xlsx
+++ b/Files/Read.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793AE246-4A38-47C7-83F6-E0C12F6171F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F219B08-1262-412D-98BB-BD7656023ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="71">
   <si>
     <t>iRobot_TeamLeader</t>
-  </si>
-  <si>
-    <t>Nonsense</t>
   </si>
   <si>
     <t>Company</t>
@@ -269,12 +266,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -383,16 +386,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
@@ -400,12 +401,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -716,15 +725,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -736,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E70661-38D2-4DD0-A56B-1A1E400144D7}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,1119 +774,1119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="12">
+        <v>986532</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="16">
-        <v>986532</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="12">
+        <v>20</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="16">
-        <v>20</v>
-      </c>
-      <c r="N2" s="16" t="s">
+      <c r="O2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="Q2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="S2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="3">
+        <v>986533</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="4">
-        <v>986533</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="3">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="4">
-        <v>20</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>40</v>
+      <c r="S3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="3">
+        <v>986534</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="4">
-        <v>986534</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="3">
+        <v>20</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="4">
-        <v>20</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>41</v>
+      <c r="S4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="3">
+        <v>986535</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="4">
-        <v>986535</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="3">
+        <v>20</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="4">
-        <v>20</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>42</v>
+      <c r="S5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="3">
+        <v>986536</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="4">
-        <v>986536</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="3">
+        <v>20</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="4">
-        <v>20</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>43</v>
+      <c r="S6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="3">
+        <v>986537</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="4">
-        <v>986537</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="3">
+        <v>20</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="4">
-        <v>20</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>44</v>
+      <c r="S7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="3">
+        <v>986538</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="4">
-        <v>986538</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="3">
+        <v>20</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="4">
-        <v>20</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>45</v>
+      <c r="S8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="3">
+        <v>986539</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="4">
-        <v>986539</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="3">
+        <v>20</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="4">
-        <v>20</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>46</v>
+      <c r="S9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="3">
+        <v>986540</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="4">
-        <v>986540</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="3">
+        <v>20</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="4">
-        <v>20</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>47</v>
+      <c r="S10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="3">
+        <v>986541</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="4">
-        <v>986541</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="3">
+        <v>20</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="4">
-        <v>20</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>48</v>
+      <c r="S11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="3">
+        <v>986542</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="4">
-        <v>986542</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="3">
+        <v>20</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="4">
-        <v>20</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Q12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>49</v>
+      <c r="S12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="3">
+        <v>986543</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="4">
-        <v>986543</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="3">
+        <v>20</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="4">
-        <v>20</v>
-      </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>50</v>
+      <c r="S13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="3">
+        <v>986544</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="4">
-        <v>986544</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="M14" s="3">
+        <v>20</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="4">
-        <v>20</v>
-      </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>51</v>
+      <c r="S14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="3">
+        <v>986545</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="4">
-        <v>986545</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="M15" s="3">
+        <v>20</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="4">
-        <v>20</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>52</v>
+      <c r="S15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="3">
+        <v>986546</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="4">
-        <v>986546</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="3">
+        <v>20</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="4">
-        <v>20</v>
-      </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>53</v>
+      <c r="S16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="3">
+        <v>986547</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="4">
-        <v>986547</v>
-      </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="M17" s="3">
+        <v>20</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="4">
-        <v>20</v>
-      </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>54</v>
+      <c r="S17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="7">
+        <v>986548</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="9">
-        <v>986548</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="K18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="M18" s="7">
+        <v>20</v>
+      </c>
+      <c r="N18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="9">
-        <v>20</v>
-      </c>
-      <c r="N18" s="9" t="s">
+      <c r="O18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="P18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="Q18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="R18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>55</v>
+      <c r="S18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Read.xlsx
+++ b/Files/Read.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F219B08-1262-412D-98BB-BD7656023ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD4A17F-F2B9-4D95-A4F9-D8FD684052E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Username and Password" sheetId="1" r:id="rId1"/>
+    <sheet name="Company Name" sheetId="2" r:id="rId2"/>
     <sheet name="Employee Details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -699,7 +699,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Files/Read.xlsx
+++ b/Files/Read.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD4A17F-F2B9-4D95-A4F9-D8FD684052E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB1961C-4DCC-4E9B-A2B6-A86B93A1AA60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="72">
   <si>
     <t>iRobot_TeamLeader</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>0609013681</t>
+  </si>
+  <si>
+    <t>Nonsense</t>
   </si>
 </sst>
 </file>
@@ -725,15 +728,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
